--- a/Databases/korean_words.xlsx
+++ b/Databases/korean_words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer-1\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F9DA78-74AD-4C81-BE9C-9157154C1D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3FC13-2656-4275-94F4-0718A99F7DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19860" yWindow="6975" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19515" yWindow="6630" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,13 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A2:E11"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -449,6 +456,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Databases/korean_words.xlsx
+++ b/Databases/korean_words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer-1\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3FC13-2656-4275-94F4-0718A99F7DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E3D60D-EC0B-43FD-91A4-8DE9920AA6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19515" yWindow="6630" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8610" yWindow="6735" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -29,15 +29,74 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>들다</t>
+  </si>
+  <si>
+    <t>이후로</t>
+  </si>
+  <si>
+    <t>길게</t>
+  </si>
+  <si>
+    <t>얘기하다</t>
+  </si>
+  <si>
+    <t>다니다</t>
+  </si>
+  <si>
+    <t>성</t>
+  </si>
+  <si>
+    <t>유산</t>
+  </si>
+  <si>
+    <t>수학여행</t>
+  </si>
+  <si>
+    <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
+ 2.(위로 올리다) raise, lift (up), put up 
+ 3.(예·이유 등을) give, quote, cite</t>
+  </si>
+  <si>
+    <t>1. adv. hereafter, henceforth, ever since</t>
+  </si>
+  <si>
+    <t>1.(길이가) long, lengthy 
+ 2.(시간이) long, lengthy</t>
+  </si>
+  <si>
+    <t>1. Verb tell, say, speak  
+ 2. Verb converse, have a talk, talk  
+ 3. Verb tell</t>
+  </si>
+  <si>
+    <t>1. (드나들다) go, (formal) frequent  
+ 2. (버스·배 등이) run, go  
+ 3. (지나다니다) pass</t>
+  </si>
+  <si>
+    <t>1. (남녀의 구별) sex, gender  
+ 2. (남녀의 육체적 관계) sex  
+ 3. (언어의) gender 
+ 4. castle, fortress</t>
+  </si>
+  <si>
+    <t>1. (사후에 남겨진 재산) (물려받은) inheritance, legacy; (물려주는) (formal) bequest  
+ 2. (앞 세대가 물려준 사물·문화) heritage</t>
+  </si>
+  <si>
+    <t>1. n. school trip</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,12 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,15 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,25 +516,92 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
